--- a/DS_na_Copa/dados/outputSimulaçõesCopaDoMundo.xlsx
+++ b/DS_na_Copa/dados/outputSimulaçõesCopaDoMundo.xlsx
@@ -488,443 +488,443 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.559453125</v>
+        <v>0.5306999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.251328125</v>
+        <v>0.2861</v>
       </c>
       <c r="D2" t="n">
-        <v>0.132578125</v>
+        <v>0.1527</v>
       </c>
       <c r="E2" t="n">
-        <v>0.056640625</v>
+        <v>0.0305</v>
       </c>
       <c r="F2" t="n">
-        <v>0.81078125</v>
+        <v>0.8168</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4053125</v>
+        <v>0.5181</v>
       </c>
       <c r="H2" t="n">
-        <v>0.207109375</v>
+        <v>0.3214</v>
       </c>
       <c r="I2" t="n">
-        <v>0.102890625</v>
+        <v>0.2048</v>
       </c>
       <c r="J2" t="n">
-        <v>0.051875</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Holanda</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.561171875</v>
+        <v>0.5683</v>
       </c>
       <c r="C3" t="n">
-        <v>0.281953125</v>
+        <v>0.2453</v>
       </c>
       <c r="D3" t="n">
-        <v>0.118125</v>
+        <v>0.1315</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03875</v>
+        <v>0.0549</v>
       </c>
       <c r="F3" t="n">
-        <v>0.843125</v>
+        <v>0.8136</v>
       </c>
       <c r="G3" t="n">
-        <v>0.414921875</v>
+        <v>0.4951</v>
       </c>
       <c r="H3" t="n">
-        <v>0.20046875</v>
+        <v>0.3026</v>
       </c>
       <c r="I3" t="n">
-        <v>0.097578125</v>
+        <v>0.1729</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0503125</v>
+        <v>0.0985</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>França</t>
+          <t>Holanda</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.44125</v>
+        <v>0.5698</v>
       </c>
       <c r="C4" t="n">
-        <v>0.30921875</v>
+        <v>0.2812</v>
       </c>
       <c r="D4" t="n">
-        <v>0.169921875</v>
+        <v>0.1136</v>
       </c>
       <c r="E4" t="n">
-        <v>0.079609375</v>
+        <v>0.0354</v>
       </c>
       <c r="F4" t="n">
-        <v>0.75046875</v>
+        <v>0.851</v>
       </c>
       <c r="G4" t="n">
-        <v>0.375</v>
+        <v>0.5405</v>
       </c>
       <c r="H4" t="n">
-        <v>0.18984375</v>
+        <v>0.3107</v>
       </c>
       <c r="I4" t="n">
-        <v>0.097109375</v>
+        <v>0.1692</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04828125</v>
+        <v>0.0945</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Inglaterra</t>
+          <t>Espanha</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.451328125</v>
+        <v>0.4417</v>
       </c>
       <c r="C5" t="n">
-        <v>0.264765625</v>
+        <v>0.2961</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1728125</v>
+        <v>0.1726</v>
       </c>
       <c r="E5" t="n">
-        <v>0.11109375</v>
+        <v>0.0896</v>
       </c>
       <c r="F5" t="n">
-        <v>0.71609375</v>
+        <v>0.7378</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3625</v>
+        <v>0.4371</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1828125</v>
+        <v>0.2334</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09140624999999999</v>
+        <v>0.1311</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04734375</v>
+        <v>0.0741</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Uruguai</t>
+          <t>França</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.356484375</v>
+        <v>0.4347</v>
       </c>
       <c r="C6" t="n">
-        <v>0.35328125</v>
+        <v>0.3115</v>
       </c>
       <c r="D6" t="n">
-        <v>0.239453125</v>
+        <v>0.1658</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05078125</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>0.709765625</v>
+        <v>0.7462</v>
       </c>
       <c r="G6" t="n">
-        <v>0.355625</v>
+        <v>0.4374</v>
       </c>
       <c r="H6" t="n">
-        <v>0.180625</v>
+        <v>0.2521</v>
       </c>
       <c r="I6" t="n">
-        <v>0.093671875</v>
+        <v>0.1311</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04703125</v>
+        <v>0.0674</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.530546875</v>
+        <v>0.4526</v>
       </c>
       <c r="C7" t="n">
-        <v>0.29171875</v>
+        <v>0.3261</v>
       </c>
       <c r="D7" t="n">
-        <v>0.148359375</v>
+        <v>0.1858</v>
       </c>
       <c r="E7" t="n">
-        <v>0.029375</v>
+        <v>0.0355</v>
       </c>
       <c r="F7" t="n">
-        <v>0.822265625</v>
+        <v>0.7786999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>0.409296875</v>
+        <v>0.4056</v>
       </c>
       <c r="H7" t="n">
-        <v>0.203359375</v>
+        <v>0.2295</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1015625</v>
+        <v>0.1277</v>
       </c>
       <c r="J7" t="n">
-        <v>0.046796875</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Espanha</t>
+          <t>Bélgica</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.443203125</v>
+        <v>0.4235</v>
       </c>
       <c r="C8" t="n">
-        <v>0.289609375</v>
+        <v>0.2895</v>
       </c>
       <c r="D8" t="n">
-        <v>0.17625</v>
+        <v>0.1785</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0909375</v>
+        <v>0.1085</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7328125</v>
+        <v>0.713</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3634375</v>
+        <v>0.3998</v>
       </c>
       <c r="H8" t="n">
-        <v>0.18328125</v>
+        <v>0.2144</v>
       </c>
       <c r="I8" t="n">
-        <v>0.092890625</v>
+        <v>0.1229</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0465625</v>
+        <v>0.0634</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Dinamarca</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.458203125</v>
+        <v>0.3754</v>
       </c>
       <c r="C9" t="n">
-        <v>0.32015625</v>
+        <v>0.326</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1884375</v>
+        <v>0.1947</v>
       </c>
       <c r="E9" t="n">
-        <v>0.033203125</v>
+        <v>0.1039</v>
       </c>
       <c r="F9" t="n">
-        <v>0.778359375</v>
+        <v>0.7014</v>
       </c>
       <c r="G9" t="n">
-        <v>0.388203125</v>
+        <v>0.3934</v>
       </c>
       <c r="H9" t="n">
-        <v>0.191953125</v>
+        <v>0.2166</v>
       </c>
       <c r="I9" t="n">
-        <v>0.096875</v>
+        <v>0.1039</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04546875</v>
+        <v>0.0501</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Dinamarca</t>
+          <t>Inglaterra</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.37</v>
+        <v>0.4416</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3259375</v>
+        <v>0.2718</v>
       </c>
       <c r="D10" t="n">
-        <v>0.196484375</v>
+        <v>0.1777</v>
       </c>
       <c r="E10" t="n">
-        <v>0.107578125</v>
+        <v>0.1089</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6959375</v>
+        <v>0.7134</v>
       </c>
       <c r="G10" t="n">
-        <v>0.349375</v>
+        <v>0.3987</v>
       </c>
       <c r="H10" t="n">
-        <v>0.17640625</v>
+        <v>0.2126</v>
       </c>
       <c r="I10" t="n">
-        <v>0.08437500000000001</v>
+        <v>0.102</v>
       </c>
       <c r="J10" t="n">
-        <v>0.045234375</v>
+        <v>0.0497</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Bélgica</t>
+          <t>Alemanha</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.429375</v>
+        <v>0.3386</v>
       </c>
       <c r="C11" t="n">
-        <v>0.281640625</v>
+        <v>0.3167</v>
       </c>
       <c r="D11" t="n">
-        <v>0.184765625</v>
+        <v>0.217</v>
       </c>
       <c r="E11" t="n">
-        <v>0.10421875</v>
+        <v>0.1277</v>
       </c>
       <c r="F11" t="n">
-        <v>0.711015625</v>
+        <v>0.6553</v>
       </c>
       <c r="G11" t="n">
-        <v>0.353046875</v>
+        <v>0.3565</v>
       </c>
       <c r="H11" t="n">
-        <v>0.179140625</v>
+        <v>0.1804</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09148437500000001</v>
+        <v>0.0964</v>
       </c>
       <c r="J11" t="n">
-        <v>0.045234375</v>
+        <v>0.0472</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Equador</t>
+          <t>Uruguai</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3134375</v>
+        <v>0.3639</v>
       </c>
       <c r="C12" t="n">
-        <v>0.38375</v>
+        <v>0.3489</v>
       </c>
       <c r="D12" t="n">
-        <v>0.203359375</v>
+        <v>0.2409</v>
       </c>
       <c r="E12" t="n">
-        <v>0.099453125</v>
+        <v>0.0463</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6971875</v>
+        <v>0.7128</v>
       </c>
       <c r="G12" t="n">
-        <v>0.352265625</v>
+        <v>0.3398</v>
       </c>
       <c r="H12" t="n">
-        <v>0.172734375</v>
+        <v>0.1757</v>
       </c>
       <c r="I12" t="n">
-        <v>0.083984375</v>
+        <v>0.08740000000000001</v>
       </c>
       <c r="J12" t="n">
-        <v>0.042265625</v>
+        <v>0.0433</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Alemanha</t>
+          <t>Croácia</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3365625</v>
+        <v>0.3187</v>
       </c>
       <c r="C13" t="n">
-        <v>0.31484375</v>
+        <v>0.3004</v>
       </c>
       <c r="D13" t="n">
-        <v>0.220390625</v>
+        <v>0.2263</v>
       </c>
       <c r="E13" t="n">
-        <v>0.128203125</v>
+        <v>0.1546</v>
       </c>
       <c r="F13" t="n">
-        <v>0.65140625</v>
+        <v>0.6191</v>
       </c>
       <c r="G13" t="n">
-        <v>0.325703125</v>
+        <v>0.3148</v>
       </c>
       <c r="H13" t="n">
-        <v>0.165390625</v>
+        <v>0.1429</v>
       </c>
       <c r="I13" t="n">
-        <v>0.08484375</v>
+        <v>0.0732</v>
       </c>
       <c r="J13" t="n">
-        <v>0.04171875</v>
+        <v>0.0348</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Croácia</t>
+          <t>Equador</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.308515625</v>
+        <v>0.3097</v>
       </c>
       <c r="C14" t="n">
-        <v>0.304609375</v>
+        <v>0.3825</v>
       </c>
       <c r="D14" t="n">
-        <v>0.23015625</v>
+        <v>0.2098</v>
       </c>
       <c r="E14" t="n">
-        <v>0.15671875</v>
+        <v>0.098</v>
       </c>
       <c r="F14" t="n">
-        <v>0.613125</v>
+        <v>0.6922</v>
       </c>
       <c r="G14" t="n">
-        <v>0.308828125</v>
+        <v>0.3697</v>
       </c>
       <c r="H14" t="n">
-        <v>0.15171875</v>
+        <v>0.1684</v>
       </c>
       <c r="I14" t="n">
-        <v>0.07578124999999999</v>
+        <v>0.0752</v>
       </c>
       <c r="J14" t="n">
-        <v>0.036875</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="15">
@@ -934,31 +934,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.229609375</v>
+        <v>0.2245</v>
       </c>
       <c r="C15" t="n">
-        <v>0.32203125</v>
+        <v>0.3262</v>
       </c>
       <c r="D15" t="n">
-        <v>0.339765625</v>
+        <v>0.3406</v>
       </c>
       <c r="E15" t="n">
-        <v>0.10859375</v>
+        <v>0.1087</v>
       </c>
       <c r="F15" t="n">
-        <v>0.551640625</v>
+        <v>0.5507</v>
       </c>
       <c r="G15" t="n">
-        <v>0.273671875</v>
+        <v>0.2736</v>
       </c>
       <c r="H15" t="n">
-        <v>0.135703125</v>
+        <v>0.1318</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0684375</v>
+        <v>0.0655</v>
       </c>
       <c r="J15" t="n">
-        <v>0.03640625</v>
+        <v>0.0296</v>
       </c>
     </row>
     <row r="16">
@@ -968,167 +968,167 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.224765625</v>
+        <v>0.2319</v>
       </c>
       <c r="C16" t="n">
-        <v>0.33078125</v>
+        <v>0.3306</v>
       </c>
       <c r="D16" t="n">
-        <v>0.33453125</v>
+        <v>0.3299</v>
       </c>
       <c r="E16" t="n">
-        <v>0.109921875</v>
+        <v>0.1076</v>
       </c>
       <c r="F16" t="n">
-        <v>0.555546875</v>
+        <v>0.5625</v>
       </c>
       <c r="G16" t="n">
-        <v>0.27890625</v>
+        <v>0.2733</v>
       </c>
       <c r="H16" t="n">
-        <v>0.140390625</v>
+        <v>0.129</v>
       </c>
       <c r="I16" t="n">
-        <v>0.071640625</v>
+        <v>0.0615</v>
       </c>
       <c r="J16" t="n">
-        <v>0.035546875</v>
+        <v>0.0265</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Polônia</t>
+          <t>México</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1875</v>
+        <v>0.1832</v>
       </c>
       <c r="C17" t="n">
-        <v>0.292578125</v>
+        <v>0.2925</v>
       </c>
       <c r="D17" t="n">
-        <v>0.298828125</v>
+        <v>0.2998</v>
       </c>
       <c r="E17" t="n">
-        <v>0.22109375</v>
+        <v>0.2245</v>
       </c>
       <c r="F17" t="n">
-        <v>0.480078125</v>
+        <v>0.4757</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2415625</v>
+        <v>0.2014</v>
       </c>
       <c r="H17" t="n">
-        <v>0.12109375</v>
+        <v>0.0915</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0584375</v>
+        <v>0.0341</v>
       </c>
       <c r="J17" t="n">
-        <v>0.029296875</v>
+        <v>0.0142</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Estados Unidos</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.18125</v>
+        <v>0.21</v>
       </c>
       <c r="C18" t="n">
-        <v>0.294609375</v>
+        <v>0.2537</v>
       </c>
       <c r="D18" t="n">
-        <v>0.293984375</v>
+        <v>0.267</v>
       </c>
       <c r="E18" t="n">
-        <v>0.23015625</v>
+        <v>0.2693</v>
       </c>
       <c r="F18" t="n">
-        <v>0.475859375</v>
+        <v>0.4637</v>
       </c>
       <c r="G18" t="n">
-        <v>0.239140625</v>
+        <v>0.2086</v>
       </c>
       <c r="H18" t="n">
-        <v>0.119765625</v>
+        <v>0.0872</v>
       </c>
       <c r="I18" t="n">
-        <v>0.059296875</v>
+        <v>0.0324</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0290625</v>
+        <v>0.0136</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Coreia do Sul</t>
+          <t>Polônia</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.175234375</v>
+        <v>0.1841</v>
       </c>
       <c r="C19" t="n">
-        <v>0.28640625</v>
+        <v>0.3038</v>
       </c>
       <c r="D19" t="n">
-        <v>0.423828125</v>
+        <v>0.2967</v>
       </c>
       <c r="E19" t="n">
-        <v>0.11453125</v>
+        <v>0.2154</v>
       </c>
       <c r="F19" t="n">
-        <v>0.461640625</v>
+        <v>0.4879</v>
       </c>
       <c r="G19" t="n">
-        <v>0.23390625</v>
+        <v>0.2127</v>
       </c>
       <c r="H19" t="n">
-        <v>0.112265625</v>
+        <v>0.0916</v>
       </c>
       <c r="I19" t="n">
-        <v>0.05671875</v>
+        <v>0.0351</v>
       </c>
       <c r="J19" t="n">
-        <v>0.028046875</v>
+        <v>0.0125</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Estados Unidos</t>
+          <t>Coreia do Sul</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.20734375</v>
+        <v>0.1751</v>
       </c>
       <c r="C20" t="n">
-        <v>0.254140625</v>
+        <v>0.2866</v>
       </c>
       <c r="D20" t="n">
-        <v>0.274765625</v>
+        <v>0.4237</v>
       </c>
       <c r="E20" t="n">
-        <v>0.26375</v>
+        <v>0.1146</v>
       </c>
       <c r="F20" t="n">
-        <v>0.461484375</v>
+        <v>0.4617</v>
       </c>
       <c r="G20" t="n">
-        <v>0.22734375</v>
+        <v>0.168</v>
       </c>
       <c r="H20" t="n">
-        <v>0.109765625</v>
+        <v>0.0692</v>
       </c>
       <c r="I20" t="n">
-        <v>0.055703125</v>
+        <v>0.0286</v>
       </c>
       <c r="J20" t="n">
-        <v>0.02734375</v>
+        <v>0.0098</v>
       </c>
     </row>
     <row r="21">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.19125</v>
+        <v>0.1891</v>
       </c>
       <c r="C21" t="n">
-        <v>0.24875</v>
+        <v>0.2529</v>
       </c>
       <c r="D21" t="n">
-        <v>0.27484375</v>
+        <v>0.2733</v>
       </c>
       <c r="E21" t="n">
-        <v>0.28515625</v>
+        <v>0.2847</v>
       </c>
       <c r="F21" t="n">
-        <v>0.44</v>
+        <v>0.442</v>
       </c>
       <c r="G21" t="n">
-        <v>0.216171875</v>
+        <v>0.1881</v>
       </c>
       <c r="H21" t="n">
-        <v>0.106796875</v>
+        <v>0.0733</v>
       </c>
       <c r="I21" t="n">
-        <v>0.05078125</v>
+        <v>0.0229</v>
       </c>
       <c r="J21" t="n">
-        <v>0.025625</v>
+        <v>0.0083</v>
       </c>
     </row>
     <row r="22">
@@ -1172,31 +1172,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.150078125</v>
+        <v>0.1593</v>
       </c>
       <c r="C22" t="n">
-        <v>0.23234375</v>
+        <v>0.2216</v>
       </c>
       <c r="D22" t="n">
-        <v>0.277578125</v>
+        <v>0.282</v>
       </c>
       <c r="E22" t="n">
-        <v>0.34</v>
+        <v>0.3371</v>
       </c>
       <c r="F22" t="n">
-        <v>0.382421875</v>
+        <v>0.3809</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1921875</v>
+        <v>0.1542</v>
       </c>
       <c r="H22" t="n">
-        <v>0.09796874999999999</v>
+        <v>0.062</v>
       </c>
       <c r="I22" t="n">
-        <v>0.049609375</v>
+        <v>0.0202</v>
       </c>
       <c r="J22" t="n">
-        <v>0.024375</v>
+        <v>0.0074</v>
       </c>
     </row>
     <row r="23">
@@ -1206,31 +1206,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.13171875</v>
+        <v>0.1283</v>
       </c>
       <c r="C23" t="n">
-        <v>0.21390625</v>
+        <v>0.2153</v>
       </c>
       <c r="D23" t="n">
-        <v>0.312890625</v>
+        <v>0.3112</v>
       </c>
       <c r="E23" t="n">
-        <v>0.341484375</v>
+        <v>0.3452</v>
       </c>
       <c r="F23" t="n">
-        <v>0.345625</v>
+        <v>0.3436</v>
       </c>
       <c r="G23" t="n">
-        <v>0.17171875</v>
+        <v>0.1393</v>
       </c>
       <c r="H23" t="n">
-        <v>0.086015625</v>
+        <v>0.0466</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0428125</v>
+        <v>0.019</v>
       </c>
       <c r="J23" t="n">
-        <v>0.022421875</v>
+        <v>0.0062</v>
       </c>
     </row>
     <row r="24">
@@ -1240,31 +1240,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.12640625</v>
+        <v>0.1237</v>
       </c>
       <c r="C24" t="n">
-        <v>0.197734375</v>
+        <v>0.195</v>
       </c>
       <c r="D24" t="n">
-        <v>0.29125</v>
+        <v>0.2981</v>
       </c>
       <c r="E24" t="n">
-        <v>0.384609375</v>
+        <v>0.3832</v>
       </c>
       <c r="F24" t="n">
-        <v>0.324140625</v>
+        <v>0.3187</v>
       </c>
       <c r="G24" t="n">
-        <v>0.16359375</v>
+        <v>0.1212</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0859375</v>
+        <v>0.0419</v>
       </c>
       <c r="I24" t="n">
-        <v>0.04265625</v>
+        <v>0.0159</v>
       </c>
       <c r="J24" t="n">
-        <v>0.021953125</v>
+        <v>0.0057</v>
       </c>
     </row>
     <row r="25">
@@ -1274,201 +1274,201 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.135703125</v>
+        <v>0.1341</v>
       </c>
       <c r="C25" t="n">
-        <v>0.216015625</v>
+        <v>0.2151</v>
       </c>
       <c r="D25" t="n">
-        <v>0.293828125</v>
+        <v>0.2971</v>
       </c>
       <c r="E25" t="n">
-        <v>0.354453125</v>
+        <v>0.3537</v>
       </c>
       <c r="F25" t="n">
-        <v>0.35171875</v>
+        <v>0.3492</v>
       </c>
       <c r="G25" t="n">
-        <v>0.17625</v>
+        <v>0.1359</v>
       </c>
       <c r="H25" t="n">
-        <v>0.08749999999999999</v>
+        <v>0.0496</v>
       </c>
       <c r="I25" t="n">
-        <v>0.042734375</v>
+        <v>0.0179</v>
       </c>
       <c r="J25" t="n">
-        <v>0.02140625</v>
+        <v>0.0057</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Tunísia</t>
+          <t>Austrália</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.097734375</v>
+        <v>0.0955</v>
       </c>
       <c r="C26" t="n">
-        <v>0.181015625</v>
+        <v>0.18</v>
       </c>
       <c r="D26" t="n">
-        <v>0.320859375</v>
+        <v>0.3107</v>
       </c>
       <c r="E26" t="n">
-        <v>0.400390625</v>
+        <v>0.4138</v>
       </c>
       <c r="F26" t="n">
-        <v>0.27875</v>
+        <v>0.2755</v>
       </c>
       <c r="G26" t="n">
-        <v>0.136640625</v>
+        <v>0.09660000000000001</v>
       </c>
       <c r="H26" t="n">
-        <v>0.06804687500000001</v>
+        <v>0.0341</v>
       </c>
       <c r="I26" t="n">
-        <v>0.035</v>
+        <v>0.0105</v>
       </c>
       <c r="J26" t="n">
-        <v>0.018203125</v>
+        <v>0.0046</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Austrália</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.091015625</v>
+        <v>0.0914</v>
       </c>
       <c r="C27" t="n">
-        <v>0.183828125</v>
+        <v>0.1719</v>
       </c>
       <c r="D27" t="n">
-        <v>0.312734375</v>
+        <v>0.2992</v>
       </c>
       <c r="E27" t="n">
-        <v>0.412421875</v>
+        <v>0.4375</v>
       </c>
       <c r="F27" t="n">
-        <v>0.27484375</v>
+        <v>0.2633</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1365625</v>
+        <v>0.0954</v>
       </c>
       <c r="H27" t="n">
-        <v>0.06867187499999999</v>
+        <v>0.0306</v>
       </c>
       <c r="I27" t="n">
-        <v>0.035</v>
+        <v>0.0115</v>
       </c>
       <c r="J27" t="n">
-        <v>0.017734375</v>
+        <v>0.0034</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Tunísia</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.078203125</v>
+        <v>0.0944</v>
       </c>
       <c r="C28" t="n">
-        <v>0.19296875</v>
+        <v>0.1825</v>
       </c>
       <c r="D28" t="n">
-        <v>0.366640625</v>
+        <v>0.3288</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3621875</v>
+        <v>0.3943</v>
       </c>
       <c r="F28" t="n">
-        <v>0.271171875</v>
+        <v>0.2769</v>
       </c>
       <c r="G28" t="n">
-        <v>0.13671875</v>
+        <v>0.0969</v>
       </c>
       <c r="H28" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.0355</v>
       </c>
       <c r="I28" t="n">
-        <v>0.036015625</v>
+        <v>0.011</v>
       </c>
       <c r="J28" t="n">
-        <v>0.017109375</v>
+        <v>0.0033</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Arábia Saudita</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.088515625</v>
+        <v>0.0644</v>
       </c>
       <c r="C29" t="n">
-        <v>0.181640625</v>
+        <v>0.1584</v>
       </c>
       <c r="D29" t="n">
-        <v>0.29046875</v>
+        <v>0.272</v>
       </c>
       <c r="E29" t="n">
-        <v>0.439375</v>
+        <v>0.5052</v>
       </c>
       <c r="F29" t="n">
-        <v>0.27015625</v>
+        <v>0.2228</v>
       </c>
       <c r="G29" t="n">
-        <v>0.137421875</v>
+        <v>0.0665</v>
       </c>
       <c r="H29" t="n">
-        <v>0.06734374999999999</v>
+        <v>0.0211</v>
       </c>
       <c r="I29" t="n">
-        <v>0.03328125</v>
+        <v>0.0059</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0165625</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Arábia Saudita</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.071796875</v>
+        <v>0.0707</v>
       </c>
       <c r="C30" t="n">
-        <v>0.161484375</v>
+        <v>0.1969</v>
       </c>
       <c r="D30" t="n">
-        <v>0.274609375</v>
+        <v>0.3617</v>
       </c>
       <c r="E30" t="n">
-        <v>0.492109375</v>
+        <v>0.3707</v>
       </c>
       <c r="F30" t="n">
-        <v>0.23328125</v>
+        <v>0.2676</v>
       </c>
       <c r="G30" t="n">
-        <v>0.11640625</v>
+        <v>0.091</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0596875</v>
+        <v>0.0277</v>
       </c>
       <c r="I30" t="n">
-        <v>0.028828125</v>
+        <v>0.0069</v>
       </c>
       <c r="J30" t="n">
-        <v>0.014609375</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="31">
@@ -1478,31 +1478,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0471875</v>
+        <v>0.0498</v>
       </c>
       <c r="C31" t="n">
-        <v>0.141328125</v>
+        <v>0.1394</v>
       </c>
       <c r="D31" t="n">
-        <v>0.311875</v>
+        <v>0.3149</v>
       </c>
       <c r="E31" t="n">
-        <v>0.499609375</v>
+        <v>0.4959</v>
       </c>
       <c r="F31" t="n">
-        <v>0.188515625</v>
+        <v>0.1892</v>
       </c>
       <c r="G31" t="n">
-        <v>0.097890625</v>
+        <v>0.0492</v>
       </c>
       <c r="H31" t="n">
-        <v>0.048828125</v>
+        <v>0.013</v>
       </c>
       <c r="I31" t="n">
-        <v>0.024375</v>
+        <v>0.0028</v>
       </c>
       <c r="J31" t="n">
-        <v>0.012890625</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="32">
@@ -1512,31 +1512,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.015078125</v>
+        <v>0.0129</v>
       </c>
       <c r="C32" t="n">
-        <v>0.05546875</v>
+        <v>0.0571</v>
       </c>
       <c r="D32" t="n">
-        <v>0.17734375</v>
+        <v>0.1768</v>
       </c>
       <c r="E32" t="n">
-        <v>0.752109375</v>
+        <v>0.7532</v>
       </c>
       <c r="F32" t="n">
-        <v>0.070546875</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G32" t="n">
-        <v>0.035234375</v>
+        <v>0.0152</v>
       </c>
       <c r="H32" t="n">
-        <v>0.016953125</v>
+        <v>0.0028</v>
       </c>
       <c r="I32" t="n">
-        <v>0.008359375</v>
+        <v>0.0005</v>
       </c>
       <c r="J32" t="n">
-        <v>0.00375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1546,31 +1546,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.010078125</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.04015625</v>
+        <v>0.0384</v>
       </c>
       <c r="D33" t="n">
-        <v>0.14828125</v>
+        <v>0.1496</v>
       </c>
       <c r="E33" t="n">
-        <v>0.801484375</v>
+        <v>0.8036</v>
       </c>
       <c r="F33" t="n">
-        <v>0.050234375</v>
+        <v>0.0468</v>
       </c>
       <c r="G33" t="n">
-        <v>0.02515625</v>
+        <v>0.0064</v>
       </c>
       <c r="H33" t="n">
-        <v>0.012421875</v>
+        <v>0.0008</v>
       </c>
       <c r="I33" t="n">
-        <v>0.005859375</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.00265625</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
